--- a/NFL_master_list.xlsx
+++ b/NFL_master_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6d03b20621775d4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Downloads\Ball Knower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E98CE4-D105-4FC3-B93F-CA2CD6166955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F0D7B-8E1A-44C3-9344-384E17F2DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="12166" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38490" yWindow="160" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="406">
   <si>
     <t>Name</t>
   </si>
@@ -457,9 +457,6 @@
     <t>Darren Waller</t>
   </si>
   <si>
-    <t>Martellus Bennett</t>
-  </si>
-  <si>
     <t>Ray Lewis</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
     <t>Haloti Ngata</t>
   </si>
   <si>
-    <t>Mario Williams</t>
-  </si>
-  <si>
     <t>Charles Tillman</t>
   </si>
   <si>
@@ -601,12 +595,6 @@
     <t>Eric Weddle</t>
   </si>
   <si>
-    <t>Antonio Cromartie</t>
-  </si>
-  <si>
-    <t>London Fletcher</t>
-  </si>
-  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
@@ -679,9 +667,6 @@
     <t>Arizona Cardinals</t>
   </si>
   <si>
-    <t>Washington Redskins</t>
-  </si>
-  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
@@ -955,9 +940,6 @@
     <t>Syracuse</t>
   </si>
   <si>
-    <t>John Carroll</t>
-  </si>
-  <si>
     <t>QB</t>
   </si>
   <si>
@@ -1025,6 +1007,237 @@
   </si>
   <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rome Odunze </t>
+  </si>
+  <si>
+    <t>J.J. McCarthy</t>
+  </si>
+  <si>
+    <t>Bo Nix</t>
+  </si>
+  <si>
+    <t>Brock Bowers</t>
+  </si>
+  <si>
+    <t>Brian Thomas Jr.</t>
+  </si>
+  <si>
+    <t>Ricky Peasrsall</t>
+  </si>
+  <si>
+    <t>Bryce Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.J. Stroud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Texans </t>
+  </si>
+  <si>
+    <t>Anthony Richardson</t>
+  </si>
+  <si>
+    <t>Bijan Robinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta Falcons </t>
+  </si>
+  <si>
+    <t>Jahmyr Gibbs</t>
+  </si>
+  <si>
+    <t>Jaxon Smith-Njigba</t>
+  </si>
+  <si>
+    <t>Quentin Johnston</t>
+  </si>
+  <si>
+    <t>Zay Flowers</t>
+  </si>
+  <si>
+    <t>Jordan Addison</t>
+  </si>
+  <si>
+    <t>Dalton Kincaid</t>
+  </si>
+  <si>
+    <t>Aidan Hutchinson</t>
+  </si>
+  <si>
+    <t>Drake London</t>
+  </si>
+  <si>
+    <t>Garrett Wilson</t>
+  </si>
+  <si>
+    <t>Chris Olave</t>
+  </si>
+  <si>
+    <t>Kenny Pickett</t>
+  </si>
+  <si>
+    <t>Trent McDuffie</t>
+  </si>
+  <si>
+    <t>Zach Wilson</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Kyle Pitts</t>
+  </si>
+  <si>
+    <t>Jaylen Waddle</t>
+  </si>
+  <si>
+    <t>Pat Surtain III</t>
+  </si>
+  <si>
+    <t>DeVonta Smith</t>
+  </si>
+  <si>
+    <t>Justin Fields</t>
+  </si>
+  <si>
+    <t>Mac Jones</t>
+  </si>
+  <si>
+    <t>Najee Harris</t>
+  </si>
+  <si>
+    <t>Travis Etienne</t>
+  </si>
+  <si>
+    <t>Jerry Jeudy</t>
+  </si>
+  <si>
+    <t>Jordan Love</t>
+  </si>
+  <si>
+    <t>Daniel Jones</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>T.J. Hockenson</t>
+  </si>
+  <si>
+    <t>Josh Jacobs</t>
+  </si>
+  <si>
+    <t>Derwin James</t>
+  </si>
+  <si>
+    <t>Jaire Alexander</t>
+  </si>
+  <si>
+    <t>Leonard Fournette</t>
+  </si>
+  <si>
+    <t>Brandin Cooks</t>
+  </si>
+  <si>
+    <t>Ladd McConkey</t>
+  </si>
+  <si>
+    <t>Aaron Jones</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>Kyren Williams</t>
+  </si>
+  <si>
+    <t>Cooper Dejean</t>
+  </si>
+  <si>
+    <t>Nico Collins</t>
+  </si>
+  <si>
+    <t>Kareem Hunt</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Ray Rice</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Steven Jackson</t>
+  </si>
+  <si>
+    <t>St Louis Rams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Wallace </t>
+  </si>
+  <si>
+    <t>Devin Hester</t>
+  </si>
+  <si>
+    <t>Darren McFadden</t>
+  </si>
+  <si>
+    <t>Phillip Rivers</t>
+  </si>
+  <si>
+    <t>Matt Schaub</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Dallas Clark</t>
+  </si>
+  <si>
+    <t>Pierre Garcon</t>
+  </si>
+  <si>
+    <t>Mount Union</t>
+  </si>
+  <si>
+    <t>Randy Moss</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Brett Farve</t>
+  </si>
+  <si>
+    <t>Southern Mississippi</t>
+  </si>
+  <si>
+    <t>LaDainian Tomlinson</t>
+  </si>
+  <si>
+    <t>Terry McLaurin</t>
+  </si>
+  <si>
+    <t>Trent Williams</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Puka Nacua</t>
+  </si>
+  <si>
+    <t>Maxx Crosby</t>
+  </si>
+  <si>
+    <t>Eastern Michigan</t>
+  </si>
+  <si>
+    <t>Deion Sanders</t>
   </si>
 </sst>
 </file>
@@ -1392,11 +1605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A202"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1428,16 +1641,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1445,16 +1658,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1462,16 +1675,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1479,16 +1692,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1496,16 +1709,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1513,16 +1726,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1530,16 +1743,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1547,16 +1760,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1564,16 +1777,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C10">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1581,16 +1794,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1598,16 +1811,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1615,16 +1828,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1632,16 +1845,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C14">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1649,16 +1862,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1666,16 +1879,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1683,16 +1896,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1700,16 +1913,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1717,16 +1930,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C19">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1734,16 +1947,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1751,16 +1964,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1768,16 +1981,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1785,16 +1998,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1802,16 +2015,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -1819,16 +2032,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C25">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -1836,16 +2049,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E26" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -1853,16 +2066,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -1870,16 +2083,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -1887,16 +2100,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -1904,16 +2117,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C30">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -1921,16 +2134,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -1938,16 +2151,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C32">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -1955,16 +2168,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -1972,16 +2185,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -1989,16 +2202,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -2006,16 +2219,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C36">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -2026,13 +2239,13 @@
         <v>197</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -2040,16 +2253,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -2057,16 +2270,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C39">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E39" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -2074,16 +2287,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -2091,16 +2304,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -2108,16 +2321,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C42">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E42" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -2125,16 +2338,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -2142,16 +2355,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E44" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -2159,16 +2372,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E45" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -2176,16 +2389,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E46" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -2193,16 +2406,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E47" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -2210,16 +2423,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C48">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E48" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -2227,16 +2440,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -2244,16 +2457,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E50" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -2261,16 +2474,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -2278,16 +2491,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -2295,16 +2508,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C53">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -2312,16 +2525,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C54">
         <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -2329,16 +2542,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C55">
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -2346,16 +2559,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C56">
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -2363,16 +2576,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C57">
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E57" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -2380,16 +2593,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C58">
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
@@ -2397,16 +2610,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
       <c r="C59">
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -2414,16 +2627,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C60">
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -2431,16 +2644,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C61">
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -2448,16 +2661,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C62">
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -2465,16 +2678,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C63">
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -2482,16 +2695,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C64">
         <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -2499,16 +2712,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C65">
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -2516,16 +2729,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C66">
         <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
@@ -2533,16 +2746,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C67">
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E67" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -2550,16 +2763,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C68">
         <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -2567,16 +2780,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C69">
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -2584,16 +2797,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C70">
         <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -2601,16 +2814,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C71">
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
@@ -2618,16 +2831,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
@@ -2635,16 +2848,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C73">
         <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
@@ -2652,16 +2865,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C74">
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -2669,16 +2882,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C75">
         <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -2686,16 +2899,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C76">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E76" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
@@ -2703,16 +2916,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C77">
         <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E77" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
@@ -2720,16 +2933,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C78">
         <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
@@ -2737,16 +2950,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C79">
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E79" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
@@ -2754,16 +2967,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C80">
         <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
@@ -2771,16 +2984,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C81">
         <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -2788,16 +3001,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C82">
         <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
@@ -2805,16 +3018,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C83">
         <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E83" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -2822,16 +3035,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C84">
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E84" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
@@ -2839,16 +3052,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C85">
         <v>81</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -2856,16 +3069,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C86">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
@@ -2873,16 +3086,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C87">
         <v>84</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
@@ -2890,16 +3103,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C88">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E88" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
@@ -2907,16 +3120,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
@@ -2924,16 +3137,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C90">
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E90" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
@@ -2941,16 +3154,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C91">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
@@ -2958,16 +3171,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C92">
         <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E92" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
@@ -2975,16 +3188,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C93">
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
@@ -2992,16 +3205,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C94">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E94" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
@@ -3009,16 +3222,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C95">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -3026,16 +3239,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
@@ -3043,16 +3256,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C97">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E97" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
@@ -3060,16 +3273,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E98" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
@@ -3077,16 +3290,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C99">
         <v>88</v>
       </c>
       <c r="D99" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
@@ -3094,16 +3307,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C100">
         <v>83</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E100" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
@@ -3111,16 +3324,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C101">
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E101" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -3128,16 +3341,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C102">
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
@@ -3145,16 +3358,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C103">
         <v>80</v>
       </c>
       <c r="D103" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -3162,16 +3375,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C104">
         <v>85</v>
       </c>
       <c r="D104" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E104" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
@@ -3179,16 +3392,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C105">
         <v>88</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -3196,16 +3409,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C106">
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E106" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
@@ -3213,16 +3426,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E107" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
@@ -3233,13 +3446,13 @@
         <v>213</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D108" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E108" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
@@ -3247,16 +3460,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C109">
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E109" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
@@ -3264,16 +3477,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C110">
         <v>89</v>
       </c>
       <c r="D110" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E110" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
@@ -3281,16 +3494,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>337</v>
       </c>
       <c r="C111">
         <v>80</v>
       </c>
       <c r="D111" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
@@ -3298,16 +3511,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C112">
         <v>81</v>
       </c>
       <c r="D112" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E112" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
@@ -3315,16 +3528,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C113">
         <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
@@ -3332,16 +3545,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C114">
         <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E114" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
@@ -3349,16 +3562,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C115">
         <v>80</v>
       </c>
       <c r="D115" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E115" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
@@ -3366,16 +3579,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C116">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
@@ -3383,16 +3596,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E117" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
@@ -3400,16 +3613,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C118">
         <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E118" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
@@ -3417,16 +3630,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E119" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
@@ -3434,16 +3647,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C120">
         <v>84</v>
       </c>
       <c r="D120" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
@@ -3451,16 +3664,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C121">
         <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E121" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
@@ -3468,16 +3681,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C122">
         <v>86</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E122" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
@@ -3485,16 +3698,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
@@ -3502,16 +3715,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C124">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E124" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
@@ -3519,16 +3732,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C125">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E125" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
@@ -3536,16 +3749,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C126">
         <v>80</v>
       </c>
       <c r="D126" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
@@ -3553,16 +3766,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C127">
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E127" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
@@ -3570,16 +3783,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C128">
         <v>83</v>
       </c>
       <c r="D128" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E128" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
@@ -3587,16 +3800,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C129">
         <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E129" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
@@ -3604,16 +3817,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C130">
         <v>87</v>
       </c>
       <c r="D130" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E130" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
@@ -3621,16 +3834,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C131">
         <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E131" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
@@ -3638,16 +3851,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C132">
         <v>87</v>
       </c>
       <c r="D132" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E132" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
@@ -3655,16 +3868,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C133">
         <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E133" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
@@ -3672,16 +3885,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C134">
         <v>85</v>
       </c>
       <c r="D134" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E134" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
@@ -3689,16 +3902,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C135">
         <v>82</v>
       </c>
       <c r="D135" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E135" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
@@ -3706,16 +3919,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C136">
         <v>85</v>
       </c>
       <c r="D136" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E136" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
@@ -3723,16 +3936,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C137">
         <v>80</v>
       </c>
       <c r="D137" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E137" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
@@ -3740,16 +3953,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C138">
         <v>88</v>
       </c>
       <c r="D138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E138" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
@@ -3757,16 +3970,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C139">
         <v>86</v>
       </c>
       <c r="D139" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E139" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
@@ -3774,16 +3987,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C140">
         <v>85</v>
       </c>
       <c r="D140" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E140" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
@@ -3791,16 +4004,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C141">
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E141" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
@@ -3808,16 +4021,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C142">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D142" t="s">
         <v>264</v>
       </c>
       <c r="E142" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
@@ -3825,16 +4038,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C143">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D143" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E143" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -3842,16 +4055,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C144">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E144" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
@@ -3859,16 +4072,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C145">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="E145" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
@@ -3876,16 +4089,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="C146">
         <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="E146" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
@@ -3893,16 +4106,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C147">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D147" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="E147" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
@@ -3910,16 +4123,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C148">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E148" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
@@ -3927,16 +4140,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C149">
         <v>99</v>
       </c>
       <c r="D149" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E149" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
@@ -3944,16 +4157,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C150">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D150" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E150" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
@@ -3961,16 +4174,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C151">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D151" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
@@ -3978,16 +4191,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C152">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D152" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="E152" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
@@ -3995,64 +4208,64 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C153">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D153" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="E153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C154">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D154" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="E154" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C155">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D155" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E155" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C156">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D156" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E156" t="s">
         <v>316</v>
@@ -4060,631 +4273,631 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C157">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="E157" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
         <v>196</v>
       </c>
       <c r="C158">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D158" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="E158" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D159" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="E159" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="C160">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D160" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C161">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D161" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C162">
         <v>90</v>
       </c>
       <c r="D162" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="E162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C163">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="E163" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C164">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D164" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="E164" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C165">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E165" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C166">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D166" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D167" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E167" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C168">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="E168" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C169">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D169" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E169" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C170">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B171" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C171">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D171" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E171" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C172">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D172" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="E172" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C173">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B174" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C174">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E174" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B175" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C175">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E175" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C176">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E176" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C177">
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E177" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C178">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D178" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E178" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C179">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D179" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="E179" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C180">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D180" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E180" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C181">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D181" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="E181" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D182" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E182" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C183">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D183" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="E183" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C184">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E184" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C185">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E185" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C186">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="E186" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="B187" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C187">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E187" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="B188" t="s">
         <v>197</v>
       </c>
       <c r="C188">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D188" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E188" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
       <c r="B189" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C189">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E189" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="B190" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C190">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D190" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E190" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>323</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C191">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="E191" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B192" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E192" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B193" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D193" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="E193" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
@@ -4692,16 +4905,16 @@
         <v>326</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C194">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E194" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
@@ -4709,118 +4922,1206 @@
         <v>327</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="E195" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
+        <v>329</v>
+      </c>
+      <c r="B196" t="s">
+        <v>222</v>
+      </c>
+      <c r="C196">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
         <v>328</v>
       </c>
-      <c r="B196" t="s">
-        <v>227</v>
-      </c>
-      <c r="C196">
-        <v>18</v>
-      </c>
-      <c r="D196" t="s">
-        <v>260</v>
-      </c>
       <c r="E196" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="E197" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B198" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C198">
         <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E198" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C199">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D199" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="E199" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E200" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B201" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201">
+        <v>14</v>
+      </c>
+      <c r="D201" t="s">
+        <v>245</v>
+      </c>
+      <c r="E201" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>335</v>
+      </c>
+      <c r="B202" t="s">
+        <v>200</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>258</v>
+      </c>
+      <c r="E202" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>336</v>
+      </c>
+      <c r="B203" t="s">
+        <v>337</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>267</v>
+      </c>
+      <c r="E203" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>338</v>
+      </c>
+      <c r="B204" t="s">
+        <v>198</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>245</v>
+      </c>
+      <c r="E204" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>339</v>
+      </c>
+      <c r="B205" t="s">
+        <v>340</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>266</v>
+      </c>
+      <c r="E205" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>341</v>
+      </c>
+      <c r="B206" t="s">
+        <v>212</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>258</v>
+      </c>
+      <c r="E206" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>342</v>
+      </c>
+      <c r="B207" t="s">
+        <v>217</v>
+      </c>
+      <c r="C207">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>267</v>
+      </c>
+      <c r="E207" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>343</v>
+      </c>
+      <c r="B208" t="s">
+        <v>204</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>260</v>
+      </c>
+      <c r="E208" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>344</v>
+      </c>
+      <c r="B209" t="s">
+        <v>202</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>236</v>
+      </c>
+      <c r="E209" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>345</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>255</v>
+      </c>
+      <c r="E210" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>346</v>
+      </c>
+      <c r="B211" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211">
+        <v>86</v>
+      </c>
+      <c r="D211" t="s">
+        <v>251</v>
+      </c>
+      <c r="E211" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>347</v>
+      </c>
+      <c r="B212" t="s">
+        <v>212</v>
+      </c>
+      <c r="C212">
+        <v>97</v>
+      </c>
+      <c r="D212" t="s">
         <v>223</v>
       </c>
-      <c r="C201">
-        <v>9</v>
-      </c>
-      <c r="D201" t="s">
-        <v>334</v>
-      </c>
-      <c r="E201" t="s">
-        <v>312</v>
+      <c r="E212" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>184</v>
+      </c>
+      <c r="B213" t="s">
+        <v>194</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>292</v>
+      </c>
+      <c r="E213" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>348</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>255</v>
+      </c>
+      <c r="E214" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>349</v>
+      </c>
+      <c r="B215" t="s">
+        <v>194</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>267</v>
+      </c>
+      <c r="E215" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>350</v>
+      </c>
+      <c r="B216" t="s">
+        <v>193</v>
+      </c>
+      <c r="C216">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s">
+        <v>267</v>
+      </c>
+      <c r="E216" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>351</v>
+      </c>
+      <c r="B217" t="s">
+        <v>196</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>265</v>
+      </c>
+      <c r="E217" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>352</v>
+      </c>
+      <c r="B218" t="s">
+        <v>195</v>
+      </c>
+      <c r="C218">
+        <v>22</v>
+      </c>
+      <c r="D218" t="s">
+        <v>328</v>
+      </c>
+      <c r="E218" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>353</v>
+      </c>
+      <c r="B219" t="s">
+        <v>194</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>354</v>
+      </c>
+      <c r="E219" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>355</v>
+      </c>
+      <c r="B220" t="s">
+        <v>218</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>245</v>
+      </c>
+      <c r="E220" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>356</v>
+      </c>
+      <c r="B221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C221">
+        <v>17</v>
+      </c>
+      <c r="D221" t="s">
+        <v>258</v>
+      </c>
+      <c r="E221" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>357</v>
+      </c>
+      <c r="B222" t="s">
+        <v>192</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>258</v>
+      </c>
+      <c r="E222" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>358</v>
+      </c>
+      <c r="B223" t="s">
+        <v>207</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>258</v>
+      </c>
+      <c r="E223" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>359</v>
+      </c>
+      <c r="B224" t="s">
+        <v>194</v>
+      </c>
+      <c r="C224">
+        <v>7</v>
+      </c>
+      <c r="D224" t="s">
+        <v>267</v>
+      </c>
+      <c r="E224" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>360</v>
+      </c>
+      <c r="B225" t="s">
+        <v>208</v>
+      </c>
+      <c r="C225">
+        <v>10</v>
+      </c>
+      <c r="D225" t="s">
+        <v>258</v>
+      </c>
+      <c r="E225" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>361</v>
+      </c>
+      <c r="B226" t="s">
+        <v>204</v>
+      </c>
+      <c r="C226">
+        <v>22</v>
+      </c>
+      <c r="D226" t="s">
+        <v>258</v>
+      </c>
+      <c r="E226" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>362</v>
+      </c>
+      <c r="B227" t="s">
+        <v>206</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>241</v>
+      </c>
+      <c r="E227" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>363</v>
+      </c>
+      <c r="B228" t="s">
+        <v>209</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228" t="s">
+        <v>258</v>
+      </c>
+      <c r="E228" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>121</v>
+      </c>
+      <c r="B229" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229">
+        <v>88</v>
+      </c>
+      <c r="D229" t="s">
+        <v>242</v>
+      </c>
+      <c r="E229" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>364</v>
+      </c>
+      <c r="B230" t="s">
+        <v>221</v>
+      </c>
+      <c r="C230">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>301</v>
+      </c>
+      <c r="E230" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>365</v>
+      </c>
+      <c r="B231" t="s">
+        <v>198</v>
+      </c>
+      <c r="C231">
+        <v>17</v>
+      </c>
+      <c r="D231" t="s">
+        <v>366</v>
+      </c>
+      <c r="E231" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>367</v>
+      </c>
+      <c r="B232" t="s">
+        <v>212</v>
+      </c>
+      <c r="C232">
+        <v>87</v>
+      </c>
+      <c r="D232" t="s">
+        <v>293</v>
+      </c>
+      <c r="E232" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>368</v>
+      </c>
+      <c r="B233" t="s">
+        <v>221</v>
+      </c>
+      <c r="C233">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>258</v>
+      </c>
+      <c r="E233" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>369</v>
+      </c>
+      <c r="B234" t="s">
+        <v>204</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234" t="s">
+        <v>254</v>
+      </c>
+      <c r="E234" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>370</v>
+      </c>
+      <c r="B235" t="s">
+        <v>202</v>
+      </c>
+      <c r="C235">
+        <v>23</v>
+      </c>
+      <c r="D235" t="s">
+        <v>237</v>
+      </c>
+      <c r="E235" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>371</v>
+      </c>
+      <c r="B236" t="s">
+        <v>191</v>
+      </c>
+      <c r="C236">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>240</v>
+      </c>
+      <c r="E236" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>35</v>
+      </c>
+      <c r="B237" t="s">
+        <v>212</v>
+      </c>
+      <c r="C237">
+        <v>16</v>
+      </c>
+      <c r="D237" t="s">
+        <v>226</v>
+      </c>
+      <c r="E237" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>33</v>
+      </c>
+      <c r="B238" t="s">
+        <v>210</v>
+      </c>
+      <c r="C238">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s">
+        <v>249</v>
+      </c>
+      <c r="E238" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>65</v>
+      </c>
+      <c r="B239" t="s">
+        <v>199</v>
+      </c>
+      <c r="C239">
+        <v>21</v>
+      </c>
+      <c r="D239" t="s">
+        <v>267</v>
+      </c>
+      <c r="E239" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>157</v>
+      </c>
+      <c r="B240" t="s">
+        <v>196</v>
+      </c>
+      <c r="C240">
+        <v>5</v>
+      </c>
+      <c r="D240" t="s">
+        <v>254</v>
+      </c>
+      <c r="E240" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>372</v>
+      </c>
+      <c r="B241" t="s">
+        <v>193</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>283</v>
+      </c>
+      <c r="E241" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>373</v>
+      </c>
+      <c r="B242" t="s">
+        <v>204</v>
+      </c>
+      <c r="C242">
+        <v>15</v>
+      </c>
+      <c r="D242" t="s">
+        <v>235</v>
+      </c>
+      <c r="E242" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>374</v>
+      </c>
+      <c r="B243" t="s">
+        <v>210</v>
+      </c>
+      <c r="C243">
+        <v>33</v>
+      </c>
+      <c r="D243" t="s">
+        <v>375</v>
+      </c>
+      <c r="E243" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>376</v>
+      </c>
+      <c r="B244" t="s">
+        <v>201</v>
+      </c>
+      <c r="C244">
+        <v>23</v>
+      </c>
+      <c r="D244" t="s">
+        <v>287</v>
+      </c>
+      <c r="E244" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>377</v>
+      </c>
+      <c r="B245" t="s">
+        <v>207</v>
+      </c>
+      <c r="C245">
+        <v>33</v>
+      </c>
+      <c r="D245" t="s">
+        <v>293</v>
+      </c>
+      <c r="E245" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>378</v>
+      </c>
+      <c r="B246" t="s">
+        <v>337</v>
+      </c>
+      <c r="C246">
+        <v>12</v>
+      </c>
+      <c r="D246" t="s">
+        <v>223</v>
+      </c>
+      <c r="E246" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" t="s">
+        <v>200</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>233</v>
+      </c>
+      <c r="E247" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>379</v>
+      </c>
+      <c r="B248" t="s">
+        <v>195</v>
+      </c>
+      <c r="C248">
+        <v>27</v>
+      </c>
+      <c r="D248" t="s">
+        <v>380</v>
+      </c>
+      <c r="E248" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>381</v>
+      </c>
+      <c r="B249" t="s">
+        <v>202</v>
+      </c>
+      <c r="C249">
+        <v>27</v>
+      </c>
+      <c r="D249" t="s">
+        <v>382</v>
+      </c>
+      <c r="E249" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>383</v>
+      </c>
+      <c r="B250" t="s">
+        <v>384</v>
+      </c>
+      <c r="C250">
+        <v>39</v>
+      </c>
+      <c r="D250" t="s">
+        <v>283</v>
+      </c>
+      <c r="E250" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>385</v>
+      </c>
+      <c r="B251" t="s">
+        <v>196</v>
+      </c>
+      <c r="C251">
+        <v>17</v>
+      </c>
+      <c r="D251" t="s">
+        <v>230</v>
+      </c>
+      <c r="E251" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>386</v>
+      </c>
+      <c r="B252" t="s">
+        <v>222</v>
+      </c>
+      <c r="C252">
+        <v>23</v>
+      </c>
+      <c r="D252" t="s">
+        <v>264</v>
+      </c>
+      <c r="E252" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>387</v>
+      </c>
+      <c r="B253" t="s">
+        <v>213</v>
+      </c>
+      <c r="C253">
+        <v>20</v>
+      </c>
+      <c r="D253" t="s">
+        <v>274</v>
+      </c>
+      <c r="E253" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>388</v>
+      </c>
+      <c r="B254" t="s">
+        <v>204</v>
+      </c>
+      <c r="C254">
+        <v>17</v>
+      </c>
+      <c r="D254" t="s">
+        <v>231</v>
+      </c>
+      <c r="E254" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>389</v>
+      </c>
+      <c r="B255" t="s">
+        <v>337</v>
+      </c>
+      <c r="C255">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>390</v>
+      </c>
+      <c r="E255" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>391</v>
+      </c>
+      <c r="B256" t="s">
+        <v>198</v>
+      </c>
+      <c r="C256">
+        <v>44</v>
+      </c>
+      <c r="D256" t="s">
+        <v>293</v>
+      </c>
+      <c r="E256" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>392</v>
+      </c>
+      <c r="B257" t="s">
+        <v>211</v>
+      </c>
+      <c r="C257">
+        <v>88</v>
+      </c>
+      <c r="D257" t="s">
+        <v>393</v>
+      </c>
+      <c r="E257" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>394</v>
+      </c>
+      <c r="B258" t="s">
+        <v>210</v>
+      </c>
+      <c r="C258">
+        <v>84</v>
+      </c>
+      <c r="D258" t="s">
+        <v>395</v>
+      </c>
+      <c r="E258" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>396</v>
+      </c>
+      <c r="B259" t="s">
+        <v>221</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>397</v>
+      </c>
+      <c r="E259" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>398</v>
+      </c>
+      <c r="B260" t="s">
+        <v>204</v>
+      </c>
+      <c r="C260">
+        <v>21</v>
+      </c>
+      <c r="D260" t="s">
+        <v>260</v>
+      </c>
+      <c r="E260" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>399</v>
+      </c>
+      <c r="B261" t="s">
+        <v>211</v>
+      </c>
+      <c r="C261">
+        <v>17</v>
+      </c>
+      <c r="D261" t="s">
+        <v>267</v>
+      </c>
+      <c r="E261" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>400</v>
+      </c>
+      <c r="B262" t="s">
+        <v>208</v>
+      </c>
+      <c r="C262">
+        <v>71</v>
+      </c>
+      <c r="D262" t="s">
+        <v>242</v>
+      </c>
+      <c r="E262" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>402</v>
+      </c>
+      <c r="B263" t="s">
+        <v>201</v>
+      </c>
+      <c r="C263">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>354</v>
+      </c>
+      <c r="E263" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>403</v>
+      </c>
+      <c r="B264" t="s">
+        <v>213</v>
+      </c>
+      <c r="C264">
+        <v>98</v>
+      </c>
+      <c r="D264" t="s">
+        <v>404</v>
+      </c>
+      <c r="E264" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>405</v>
+      </c>
+      <c r="B265" t="s">
+        <v>199</v>
+      </c>
+      <c r="C265">
+        <v>21</v>
+      </c>
+      <c r="D265" t="s">
+        <v>254</v>
+      </c>
+      <c r="E265" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
